--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Cellma4Automation\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4Automation\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF29D683-95D5-45E3-A0D1-1B8AE75893F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1C6D3B-C8DA-4481-A462-AD71C669B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="EditExamination" sheetId="8" r:id="rId8"/>
     <sheet name="DeleteExamination" sheetId="10" r:id="rId9"/>
     <sheet name="AddRecommendations" sheetId="9" r:id="rId10"/>
+    <sheet name="MasterPrice" sheetId="11" r:id="rId11"/>
+    <sheet name="EditMasterPrice" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="166">
   <si>
     <t>username</t>
   </si>
@@ -494,10 +496,55 @@
     <t>28/09/2023</t>
   </si>
   <si>
-    <t>PharCity01</t>
-  </si>
-  <si>
-    <t>WTCAA</t>
+    <t>hosp0524Id044</t>
+  </si>
+  <si>
+    <t>EONHJ</t>
+  </si>
+  <si>
+    <t>mepr_item_name</t>
+  </si>
+  <si>
+    <t>mepr_category</t>
+  </si>
+  <si>
+    <t>mepr_item_code2</t>
+  </si>
+  <si>
+    <t>mepr_item_code2_type</t>
+  </si>
+  <si>
+    <t>mepr_master_price</t>
+  </si>
+  <si>
+    <t>varpriVariableTypeEliText</t>
+  </si>
+  <si>
+    <t>varpriRate</t>
+  </si>
+  <si>
+    <t>Special Bed</t>
+  </si>
+  <si>
+    <t>Bed Type</t>
+  </si>
+  <si>
+    <t>ADLILC.13048A</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>150.55</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>145.55</t>
   </si>
 </sst>
 </file>
@@ -549,7 +596,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -570,6 +617,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -929,11 +980,133 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4C9807-683A-4783-8CC4-278A53AF71F5}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB832202-F083-43F5-8D45-62F97EB4A58C}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="12">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF0DF87-67F2-4E87-A7EE-C4365800D834}">
   <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1693,6 +1866,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -1947,15 +2129,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1968,6 +2141,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78922F5E-B45A-434C-B87F-644ADA933F95}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE465D84-7DC4-4AAA-B2CD-0C98B51B55AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1986,14 +2167,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78922F5E-B45A-434C-B87F-644ADA933F95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDDEEBC6-776C-42A0-89D3-F3F697350790}">
   <ds:schemaRefs>
